--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12105" windowWidth="21000" xWindow="5460" yWindow="495"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="Address" r:id="rId1" sheetId="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>first</t>
   </si>
@@ -68,6 +68,9 @@
     <t>qty</t>
   </si>
   <si>
+    <t>Abc</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -86,22 +89,16 @@
     <t>Hold</t>
   </si>
   <si>
+    <t>-45</t>
+  </si>
+  <si>
+    <t>Qty must be Positive</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>AbM</t>
-  </si>
-  <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>-45</t>
-  </si>
-  <si>
-    <t>Qty must be Positive</t>
   </si>
 </sst>
 </file>
@@ -533,7 +530,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45" r="2" s="1" spans="1:8">
       <c r="H2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="51.75" r="3" s="1" spans="1:8">
@@ -559,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +587,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -608,51 +605,48 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="69" r="2" s="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="78.75" r="3" s="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="71.25" r="4" s="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="82.5" r="5" s="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>first</t>
   </si>
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="28">
   <si>
     <t>first</t>
   </si>
